--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1869166666666666</v>
+        <v>0.1055543333333333</v>
       </c>
       <c r="H2">
-        <v>0.56075</v>
+        <v>0.316663</v>
       </c>
       <c r="I2">
-        <v>0.3148764892408542</v>
+        <v>0.1206126635621877</v>
       </c>
       <c r="J2">
-        <v>0.3148764892408542</v>
+        <v>0.1206126635621877</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.423311333333333</v>
+        <v>1.740493666666667</v>
       </c>
       <c r="N2">
-        <v>4.269934</v>
+        <v>5.221481</v>
       </c>
       <c r="O2">
-        <v>0.505384319942809</v>
+        <v>0.5281470583624094</v>
       </c>
       <c r="P2">
-        <v>0.505384319942809</v>
+        <v>0.5281470583624094</v>
       </c>
       <c r="Q2">
-        <v>0.2660406100555555</v>
+        <v>0.1837166486558889</v>
       </c>
       <c r="R2">
-        <v>2.3943654905</v>
+        <v>1.653449837903</v>
       </c>
       <c r="S2">
-        <v>0.1591336403809683</v>
+        <v>0.06370122346162439</v>
       </c>
       <c r="T2">
-        <v>0.1591336403809683</v>
+        <v>0.06370122346162439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1869166666666666</v>
+        <v>0.1055543333333333</v>
       </c>
       <c r="H3">
-        <v>0.56075</v>
+        <v>0.316663</v>
       </c>
       <c r="I3">
-        <v>0.3148764892408542</v>
+        <v>0.1206126635621877</v>
       </c>
       <c r="J3">
-        <v>0.3148764892408542</v>
+        <v>0.1206126635621877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.507295</v>
       </c>
       <c r="O3">
-        <v>0.4151192731348574</v>
+        <v>0.354759030447336</v>
       </c>
       <c r="P3">
-        <v>0.4151192731348574</v>
+        <v>0.3547590304473361</v>
       </c>
       <c r="Q3">
-        <v>0.2185239634722222</v>
+        <v>0.1234033951761111</v>
       </c>
       <c r="R3">
-        <v>1.96671567125</v>
+        <v>1.110630556585</v>
       </c>
       <c r="S3">
-        <v>0.1307112993409192</v>
+        <v>0.04278843158499244</v>
       </c>
       <c r="T3">
-        <v>0.1307112993409192</v>
+        <v>0.04278843158499245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,51 +661,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1869166666666666</v>
+        <v>0.1055543333333333</v>
       </c>
       <c r="H4">
-        <v>0.56075</v>
+        <v>0.316663</v>
       </c>
       <c r="I4">
-        <v>0.3148764892408542</v>
+        <v>0.1206126635621877</v>
       </c>
       <c r="J4">
-        <v>0.3148764892408542</v>
+        <v>0.1206126635621877</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03131333333333333</v>
+        <v>0.3858796666666667</v>
       </c>
       <c r="N4">
-        <v>0.09394</v>
+        <v>1.157639</v>
       </c>
       <c r="O4">
-        <v>0.01111862689573831</v>
+        <v>0.1170939111902545</v>
       </c>
       <c r="P4">
-        <v>0.01111862689573831</v>
+        <v>0.1170939111902545</v>
       </c>
       <c r="Q4">
-        <v>0.005852983888888888</v>
+        <v>0.04073127096188889</v>
       </c>
       <c r="R4">
-        <v>0.05267685499999999</v>
+        <v>0.366581438657</v>
       </c>
       <c r="S4">
-        <v>0.003500994202109017</v>
+        <v>0.01412300851557085</v>
       </c>
       <c r="T4">
-        <v>0.003500994202109017</v>
+        <v>0.01412300851557085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1869166666666666</v>
+        <v>0.7695970000000001</v>
       </c>
       <c r="H5">
-        <v>0.56075</v>
+        <v>2.308791</v>
       </c>
       <c r="I5">
-        <v>0.3148764892408542</v>
+        <v>0.8793873364378123</v>
       </c>
       <c r="J5">
-        <v>0.3148764892408542</v>
+        <v>0.8793873364378122</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.192572</v>
+        <v>1.740493666666667</v>
       </c>
       <c r="N5">
-        <v>0.577716</v>
+        <v>5.221481</v>
       </c>
       <c r="O5">
-        <v>0.06837778002659521</v>
+        <v>0.5281470583624094</v>
       </c>
       <c r="P5">
-        <v>0.06837778002659523</v>
+        <v>0.5281470583624094</v>
       </c>
       <c r="Q5">
-        <v>0.03599491633333333</v>
+        <v>1.339478704385667</v>
       </c>
       <c r="R5">
-        <v>0.323954247</v>
+        <v>12.055308339471</v>
       </c>
       <c r="S5">
-        <v>0.0215305553168577</v>
+        <v>0.464445834900785</v>
       </c>
       <c r="T5">
-        <v>0.02153055531685771</v>
+        <v>0.4644458349007849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4067023333333333</v>
+        <v>0.7695970000000001</v>
       </c>
       <c r="H6">
-        <v>1.220107</v>
+        <v>2.308791</v>
       </c>
       <c r="I6">
-        <v>0.6851235107591457</v>
+        <v>0.8793873364378123</v>
       </c>
       <c r="J6">
-        <v>0.6851235107591457</v>
+        <v>0.8793873364378122</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.423311333333333</v>
+        <v>1.169098333333333</v>
       </c>
       <c r="N6">
-        <v>4.269934</v>
+        <v>3.507295</v>
       </c>
       <c r="O6">
-        <v>0.505384319942809</v>
+        <v>0.354759030447336</v>
       </c>
       <c r="P6">
-        <v>0.505384319942809</v>
+        <v>0.3547590304473361</v>
       </c>
       <c r="Q6">
-        <v>0.5788640403264445</v>
+        <v>0.8997345700383335</v>
       </c>
       <c r="R6">
-        <v>5.209776362938</v>
+        <v>8.097611130345001</v>
       </c>
       <c r="S6">
-        <v>0.3462506795618406</v>
+        <v>0.3119705988623436</v>
       </c>
       <c r="T6">
-        <v>0.3462506795618406</v>
+        <v>0.3119705988623436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4067023333333333</v>
+        <v>0.7695970000000001</v>
       </c>
       <c r="H7">
-        <v>1.220107</v>
+        <v>2.308791</v>
       </c>
       <c r="I7">
-        <v>0.6851235107591457</v>
+        <v>0.8793873364378123</v>
       </c>
       <c r="J7">
-        <v>0.6851235107591457</v>
+        <v>0.8793873364378122</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.169098333333333</v>
+        <v>0.3858796666666667</v>
       </c>
       <c r="N7">
-        <v>3.507295</v>
+        <v>1.157639</v>
       </c>
       <c r="O7">
-        <v>0.4151192731348574</v>
+        <v>0.1170939111902545</v>
       </c>
       <c r="P7">
-        <v>0.4151192731348574</v>
+        <v>0.1170939111902545</v>
       </c>
       <c r="Q7">
-        <v>0.4754750200627778</v>
+        <v>0.2969718338276667</v>
       </c>
       <c r="R7">
-        <v>4.279275180565</v>
+        <v>2.672746504449</v>
       </c>
       <c r="S7">
-        <v>0.2844079737939382</v>
+        <v>0.1029709026746836</v>
       </c>
       <c r="T7">
-        <v>0.2844079737939382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.4067023333333333</v>
-      </c>
-      <c r="H8">
-        <v>1.220107</v>
-      </c>
-      <c r="I8">
-        <v>0.6851235107591457</v>
-      </c>
-      <c r="J8">
-        <v>0.6851235107591457</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.03131333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.09394</v>
-      </c>
-      <c r="O8">
-        <v>0.01111862689573831</v>
-      </c>
-      <c r="P8">
-        <v>0.01111862689573831</v>
-      </c>
-      <c r="Q8">
-        <v>0.01273520573111111</v>
-      </c>
-      <c r="R8">
-        <v>0.11461685158</v>
-      </c>
-      <c r="S8">
-        <v>0.007617632693629295</v>
-      </c>
-      <c r="T8">
-        <v>0.007617632693629295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.4067023333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.220107</v>
-      </c>
-      <c r="I9">
-        <v>0.6851235107591457</v>
-      </c>
-      <c r="J9">
-        <v>0.6851235107591457</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.192572</v>
-      </c>
-      <c r="N9">
-        <v>0.577716</v>
-      </c>
-      <c r="O9">
-        <v>0.06837778002659521</v>
-      </c>
-      <c r="P9">
-        <v>0.06837778002659523</v>
-      </c>
-      <c r="Q9">
-        <v>0.07831948173466666</v>
-      </c>
-      <c r="R9">
-        <v>0.704875335612</v>
-      </c>
-      <c r="S9">
-        <v>0.0468472247097375</v>
-      </c>
-      <c r="T9">
-        <v>0.04684722470973751</v>
+        <v>0.1029709026746836</v>
       </c>
     </row>
   </sheetData>
